--- a/用例数据/股转/普通买卖/测试结果.xlsx
+++ b/用例数据/股转/普通买卖/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="585">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -1678,55 +1678,16 @@
     <t>2.030</t>
   </si>
   <si>
-    <t>30050045</t>
-  </si>
-  <si>
-    <t>20211225183315</t>
-  </si>
-  <si>
     <t>-34402.900</t>
   </si>
   <si>
-    <t>967654.240</t>
-  </si>
-  <si>
     <t>102.900</t>
   </si>
   <si>
-    <t>000006864175</t>
-  </si>
-  <si>
-    <t>30050044</t>
-  </si>
-  <si>
-    <t>9970729.960</t>
-  </si>
-  <si>
-    <t>000006864177</t>
-  </si>
-  <si>
-    <t>30050047</t>
-  </si>
-  <si>
     <t>35298.240</t>
   </si>
   <si>
-    <t>10006028.200</t>
-  </si>
-  <si>
     <t>106.320</t>
-  </si>
-  <si>
-    <t>000006864179</t>
-  </si>
-  <si>
-    <t>30050046</t>
-  </si>
-  <si>
-    <t>1002952.480</t>
-  </si>
-  <si>
-    <t>000006864180</t>
   </si>
   <si>
     <t>BRIEFID</t>
@@ -1773,12 +1734,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>005_001_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>005_002_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>30051493</t>
+  </si>
+  <si>
+    <t>20221007203248</t>
+  </si>
+  <si>
+    <t>20221007000000</t>
+  </si>
+  <si>
+    <t>999243749.690</t>
+  </si>
+  <si>
+    <t>20221007111758</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>000006907402</t>
+  </si>
+  <si>
+    <t>0.0000000000</t>
+  </si>
+  <si>
+    <t>30051496</t>
+  </si>
+  <si>
+    <t>20221007200909</t>
+  </si>
+  <si>
+    <t>999286662.010</t>
+  </si>
+  <si>
+    <t>000006907407</t>
+  </si>
+  <si>
+    <t>30051515</t>
+  </si>
+  <si>
+    <t>20221007203249</t>
+  </si>
+  <si>
+    <t>999220672.290</t>
+  </si>
+  <si>
+    <t>000006907404</t>
+  </si>
+  <si>
+    <t>30051518</t>
+  </si>
+  <si>
+    <t>999263584.610</t>
+  </si>
+  <si>
+    <t>000006907406</t>
   </si>
 </sst>
 </file>
@@ -2110,95 +2120,95 @@
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.5" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="19" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.75" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="25" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="22.125" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="30" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2458,7 +2468,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -2469,7 +2479,7 @@
         <v>240</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>241</v>
@@ -2478,7 +2488,7 @@
         <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>242</v>
@@ -2718,7 +2728,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -2729,7 +2739,7 @@
         <v>201</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>204</v>
@@ -2738,7 +2748,7 @@
         <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>232</v>
@@ -2792,7 +2802,7 @@
         <v>208</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>58</v>
@@ -2978,7 +2988,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -2998,7 +3008,7 @@
         <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>207</v>
@@ -3238,276 +3248,276 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3523,12 +3533,12 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
@@ -3968,7 +3978,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>240</v>
       </c>
@@ -4372,7 +4382,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>201</v>
       </c>
@@ -4776,25 +4786,25 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4810,149 +4820,149 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="29" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="7" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.5" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="18" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.5" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="9" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="18.75" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="18" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.25" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="13" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.375" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="23" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="19.5" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="23" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.375" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="18" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.5" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="19" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="16.875" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="20" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
@@ -5374,7 +5384,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>201</v>
       </c>
@@ -5757,7 +5767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>240</v>
       </c>
@@ -5798,7 +5808,7 @@
         <v>72</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>243</v>
@@ -6140,9 +6150,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>202</v>
@@ -6523,9 +6533,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>202</v>
@@ -6906,282 +6916,282 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7197,56 +7207,56 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7383,7 +7393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>394</v>
       </c>
@@ -7490,7 +7500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>394</v>
       </c>
@@ -7516,7 +7526,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>67</v>
@@ -7597,7 +7607,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>394</v>
       </c>
@@ -7704,7 +7714,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>394</v>
       </c>
@@ -7811,7 +7821,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>394</v>
       </c>
@@ -7918,7 +7928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>394</v>
       </c>
@@ -8025,7 +8035,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>394</v>
       </c>
@@ -8132,7 +8142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>394</v>
       </c>
@@ -8239,276 +8249,276 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8517,154 +8527,154 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EH135"/>
+  <dimension ref="A1:EI130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AS10" sqref="AS10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.25" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.375" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="19" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="18.75" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="18" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.875" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="13" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.25" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="15" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="17.875" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="13" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.375" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="19" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.375" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="23" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="19.5" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="23" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>95</v>
@@ -9075,9 +9085,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>378</v>
@@ -9086,34 +9096,34 @@
         <v>202</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>387</v>
+        <v>567</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>216</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>208</v>
@@ -9140,28 +9150,28 @@
         <v>317</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>387</v>
+        <v>568</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>236</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>62</v>
@@ -9200,10 +9210,10 @@
         <v>208</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>215</v>
@@ -9215,7 +9225,7 @@
         <v>380</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>58</v>
@@ -9257,7 +9267,7 @@
         <v>382</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>388</v>
+        <v>570</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>55</v>
@@ -9284,7 +9294,7 @@
         <v>45</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>55</v>
+        <v>571</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>62</v>
@@ -9302,7 +9312,7 @@
         <v>55</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>63</v>
@@ -9347,7 +9357,7 @@
         <v>202</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>61</v>
+        <v>573</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>62</v>
@@ -9365,7 +9375,7 @@
         <v>62</v>
       </c>
       <c r="DP2" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="DQ2" s="1" t="s">
         <v>62</v>
@@ -9406,28 +9416,31 @@
       <c r="EG2" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="EI2" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="3" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>579</v>
+        <v>385</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>387</v>
+        <v>567</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>240</v>
@@ -9442,10 +9455,10 @@
         <v>47</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>208</v>
@@ -9463,37 +9476,37 @@
         <v>52</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>387</v>
+        <v>575</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>553</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="AE3" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>62</v>
@@ -9514,13 +9527,13 @@
         <v>62</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>62</v>
@@ -9547,7 +9560,7 @@
         <v>380</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>58</v>
@@ -9577,7 +9590,7 @@
         <v>217</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>62</v>
@@ -9589,7 +9602,7 @@
         <v>382</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>388</v>
+        <v>570</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>55</v>
@@ -9616,7 +9629,7 @@
         <v>45</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>55</v>
+        <v>571</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>62</v>
@@ -9634,7 +9647,7 @@
         <v>55</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>63</v>
@@ -9646,7 +9659,7 @@
         <v>220</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="CR3" s="1" t="s">
         <v>222</v>
@@ -9679,25 +9692,25 @@
         <v>202</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>61</v>
+        <v>573</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="DN3" s="1" t="s">
         <v>217</v>
       </c>
       <c r="DO3" s="1" t="s">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="DP3" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="DQ3" s="1" t="s">
         <v>62</v>
@@ -9709,13 +9722,13 @@
         <v>62</v>
       </c>
       <c r="DT3" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="DU3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="DV3" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="DW3" s="1" t="s">
         <v>62</v>
@@ -9738,46 +9751,49 @@
       <c r="EG3" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="EI3" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="4" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>580</v>
+        <v>378</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>390</v>
+        <v>579</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>216</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>208</v>
@@ -9795,37 +9811,37 @@
         <v>52</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>386</v>
+        <v>317</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>390</v>
+        <v>568</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>62</v>
@@ -9846,13 +9862,13 @@
         <v>62</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>62</v>
@@ -9864,10 +9880,10 @@
         <v>208</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>215</v>
@@ -9879,7 +9895,7 @@
         <v>380</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>58</v>
@@ -9909,7 +9925,7 @@
         <v>217</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>62</v>
@@ -9921,7 +9937,7 @@
         <v>382</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>388</v>
+        <v>570</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>55</v>
@@ -9948,7 +9964,7 @@
         <v>45</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>55</v>
+        <v>571</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>62</v>
@@ -9966,7 +9982,7 @@
         <v>55</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>63</v>
@@ -9978,7 +9994,7 @@
         <v>220</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="CR4" s="1" t="s">
         <v>222</v>
@@ -10011,25 +10027,25 @@
         <v>202</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>61</v>
+        <v>573</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="DL4" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="DM4" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="DN4" s="1" t="s">
         <v>217</v>
       </c>
       <c r="DO4" s="1" t="s">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c r="DP4" s="1" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="DQ4" s="1" t="s">
         <v>62</v>
@@ -10041,13 +10057,13 @@
         <v>62</v>
       </c>
       <c r="DT4" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="DU4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="DW4" s="1" t="s">
         <v>62</v>
@@ -10070,10 +10086,13 @@
       <c r="EG4" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="EI4" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="5" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>385</v>
@@ -10082,10 +10101,10 @@
         <v>202</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>390</v>
+        <v>579</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>46</v>
@@ -10136,16 +10155,16 @@
         <v>386</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>390</v>
+        <v>575</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>219</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>325</v>
@@ -10154,10 +10173,10 @@
         <v>226</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>62</v>
@@ -10253,7 +10272,7 @@
         <v>382</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>388</v>
+        <v>570</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>55</v>
@@ -10280,7 +10299,7 @@
         <v>45</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>55</v>
+        <v>571</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>62</v>
@@ -10298,7 +10317,7 @@
         <v>55</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>63</v>
@@ -10343,7 +10362,7 @@
         <v>202</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>61</v>
+        <v>573</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>62</v>
@@ -10361,7 +10380,7 @@
         <v>226</v>
       </c>
       <c r="DP5" s="1" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="DQ5" s="1" t="s">
         <v>62</v>
@@ -10402,137 +10421,135 @@
       <c r="EG5" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="EI5" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="6" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/股转/普通买卖/测试结果.xlsx
+++ b/用例数据/股转/普通买卖/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="579">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -1660,31 +1660,7 @@
     <t>10908683.230</t>
   </si>
   <si>
-    <t>4.91470000</t>
-  </si>
-  <si>
-    <t>0.830</t>
-  </si>
-  <si>
-    <t>1.47105514</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>-27785.113</t>
-  </si>
-  <si>
-    <t>2.030</t>
-  </si>
-  <si>
-    <t>-34402.900</t>
-  </si>
-  <si>
     <t>102.900</t>
-  </si>
-  <si>
-    <t>35298.240</t>
   </si>
   <si>
     <t>106.320</t>
@@ -1694,23 +1670,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GZ11721600</t>
+    <t>831353</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GZ11721601</t>
+    <t>000011721600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>830999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>430089</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>430140</t>
+    <t>000011721601</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1718,77 +1686,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>831353</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000011721600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000011721601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANQ001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30051493</t>
-  </si>
-  <si>
-    <t>20221007203248</t>
-  </si>
-  <si>
-    <t>20221007000000</t>
-  </si>
-  <si>
-    <t>999243749.690</t>
-  </si>
-  <si>
-    <t>20221007111758</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>000006907402</t>
-  </si>
-  <si>
     <t>0.0000000000</t>
   </si>
   <si>
-    <t>30051496</t>
-  </si>
-  <si>
-    <t>20221007200909</t>
-  </si>
-  <si>
-    <t>999286662.010</t>
-  </si>
-  <si>
-    <t>000006907407</t>
-  </si>
-  <si>
-    <t>30051515</t>
-  </si>
-  <si>
-    <t>20221007203249</t>
-  </si>
-  <si>
-    <t>999220672.290</t>
-  </si>
-  <si>
-    <t>000006907404</t>
-  </si>
-  <si>
-    <t>30051518</t>
-  </si>
-  <si>
-    <t>999263584.610</t>
-  </si>
-  <si>
-    <t>000006907406</t>
+    <t>4.91475000</t>
+  </si>
+  <si>
+    <t>0.8300</t>
+  </si>
+  <si>
+    <t>1.47105841</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>-27785.463</t>
+  </si>
+  <si>
+    <t>2.0300</t>
+  </si>
+  <si>
+    <t>30000476</t>
+  </si>
+  <si>
+    <t>20221130200609</t>
+  </si>
+  <si>
+    <t>20221130000000</t>
+  </si>
+  <si>
+    <t>-34403.250</t>
+  </si>
+  <si>
+    <t>1000276154.580</t>
+  </si>
+  <si>
+    <t>0.350</t>
+  </si>
+  <si>
+    <t>20221130111758</t>
+  </si>
+  <si>
+    <t>000007060090</t>
+  </si>
+  <si>
+    <t>30000479</t>
+  </si>
+  <si>
+    <t>20221130200909</t>
+  </si>
+  <si>
+    <t>35297.890</t>
+  </si>
+  <si>
+    <t>1000319065.790</t>
+  </si>
+  <si>
+    <t>000007060081</t>
+  </si>
+  <si>
+    <t>30000428</t>
+  </si>
+  <si>
+    <t>1021886263.960</t>
+  </si>
+  <si>
+    <t>000007060092</t>
+  </si>
+  <si>
+    <t>30000442</t>
+  </si>
+  <si>
+    <t>1021929175.170</t>
+  </si>
+  <si>
+    <t>000007060080</t>
   </si>
 </sst>
 </file>
@@ -2114,101 +2090,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH274"/>
+  <dimension ref="A1:CH270"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="19" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="25" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="30" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="19" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="25" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="30" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2468,7 +2443,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -2479,7 +2454,7 @@
         <v>240</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>556</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>241</v>
@@ -2488,7 +2463,7 @@
         <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>558</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>242</v>
@@ -2500,7 +2475,7 @@
         <v>74</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>318</v>
@@ -2548,7 +2523,7 @@
         <v>58</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>55</v>
@@ -2668,7 +2643,7 @@
         <v>55</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>318</v>
@@ -2728,7 +2703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -2739,7 +2714,7 @@
         <v>201</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>557</v>
+        <v>203</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>204</v>
@@ -2748,7 +2723,7 @@
         <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>559</v>
+        <v>87</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>232</v>
@@ -2760,7 +2735,7 @@
         <v>322</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>320</v>
@@ -2802,13 +2777,13 @@
         <v>208</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>561</v>
+        <v>52</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>55</v>
@@ -2928,7 +2903,7 @@
         <v>55</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>320</v>
@@ -2988,7 +2963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -3008,7 +2983,7 @@
         <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>560</v>
+        <v>71</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>207</v>
@@ -3026,7 +3001,7 @@
         <v>324</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>325</v>
@@ -3068,7 +3043,7 @@
         <v>58</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>55</v>
@@ -3194,7 +3169,7 @@
         <v>324</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="BR4" s="1" t="s">
         <v>319</v>
@@ -3248,276 +3223,272 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3533,12 +3504,12 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
@@ -3978,7 +3949,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>240</v>
       </c>
@@ -4382,7 +4353,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>201</v>
       </c>
@@ -4786,25 +4757,25 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4820,149 +4791,149 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="29" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="7" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="18" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="9" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="18" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="13" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="23" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="23" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="18" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="19" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="20" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
@@ -5384,7 +5355,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>201</v>
       </c>
@@ -5767,7 +5738,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>240</v>
       </c>
@@ -5808,7 +5779,7 @@
         <v>72</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>243</v>
@@ -6150,9 +6121,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>202</v>
@@ -6533,9 +6504,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>202</v>
@@ -6916,282 +6887,282 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7207,56 +7178,56 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7393,7 +7364,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>394</v>
       </c>
@@ -7500,7 +7471,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>394</v>
       </c>
@@ -7526,7 +7497,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>67</v>
@@ -7607,7 +7578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>394</v>
       </c>
@@ -7714,7 +7685,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>394</v>
       </c>
@@ -7821,7 +7792,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>394</v>
       </c>
@@ -7928,7 +7899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>394</v>
       </c>
@@ -8035,7 +8006,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>394</v>
       </c>
@@ -8142,7 +8113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>394</v>
       </c>
@@ -8249,276 +8220,276 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8527,154 +8498,154 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI130"/>
+  <dimension ref="A1:EI125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="19" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="18" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="13" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="15" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="13" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="19" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="23" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="23" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>95</v>
@@ -9085,9 +9056,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>378</v>
@@ -9096,10 +9067,10 @@
         <v>202</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>46</v>
@@ -9150,16 +9121,16 @@
         <v>317</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>236</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>74</v>
@@ -9168,13 +9139,13 @@
         <v>62</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>62</v>
+        <v>565</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>62</v>
@@ -9267,7 +9238,7 @@
         <v>382</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>55</v>
@@ -9294,7 +9265,7 @@
         <v>45</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>62</v>
@@ -9312,7 +9283,7 @@
         <v>55</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>63</v>
@@ -9357,7 +9328,7 @@
         <v>202</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>62</v>
@@ -9375,10 +9346,10 @@
         <v>62</v>
       </c>
       <c r="DP2" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="DQ2" s="1" t="s">
-        <v>62</v>
+        <v>565</v>
       </c>
       <c r="DR2" s="1" t="s">
         <v>62</v>
@@ -9420,9 +9391,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>385</v>
@@ -9431,10 +9402,10 @@
         <v>202</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>46</v>
@@ -9485,16 +9456,16 @@
         <v>386</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>219</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>55</v>
@@ -9503,13 +9474,13 @@
         <v>226</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>62</v>
+        <v>565</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>62</v>
@@ -9602,7 +9573,7 @@
         <v>382</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>55</v>
@@ -9629,7 +9600,7 @@
         <v>45</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>62</v>
@@ -9647,7 +9618,7 @@
         <v>55</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>63</v>
@@ -9692,7 +9663,7 @@
         <v>202</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>62</v>
@@ -9710,10 +9681,10 @@
         <v>226</v>
       </c>
       <c r="DP3" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="DQ3" s="1" t="s">
-        <v>62</v>
+        <v>565</v>
       </c>
       <c r="DR3" s="1" t="s">
         <v>62</v>
@@ -9755,9 +9726,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>378</v>
@@ -9766,10 +9737,10 @@
         <v>202</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>46</v>
@@ -9820,16 +9791,16 @@
         <v>317</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>236</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>322</v>
@@ -9838,13 +9809,13 @@
         <v>62</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>62</v>
+        <v>565</v>
       </c>
       <c r="AG4" s="1" t="s">
         <v>62</v>
@@ -9937,7 +9908,7 @@
         <v>382</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>55</v>
@@ -9964,7 +9935,7 @@
         <v>45</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>62</v>
@@ -9982,7 +9953,7 @@
         <v>55</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>63</v>
@@ -10027,7 +9998,7 @@
         <v>202</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>62</v>
@@ -10045,10 +10016,10 @@
         <v>62</v>
       </c>
       <c r="DP4" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="DQ4" s="1" t="s">
-        <v>62</v>
+        <v>565</v>
       </c>
       <c r="DR4" s="1" t="s">
         <v>62</v>
@@ -10090,9 +10061,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>385</v>
@@ -10101,10 +10072,10 @@
         <v>202</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>46</v>
@@ -10155,16 +10126,16 @@
         <v>386</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>219</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>325</v>
@@ -10173,13 +10144,13 @@
         <v>226</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>62</v>
+        <v>565</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>62</v>
@@ -10272,7 +10243,7 @@
         <v>382</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>55</v>
@@ -10299,7 +10270,7 @@
         <v>45</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>62</v>
@@ -10317,7 +10288,7 @@
         <v>55</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>63</v>
@@ -10362,7 +10333,7 @@
         <v>202</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>62</v>
@@ -10380,10 +10351,10 @@
         <v>226</v>
       </c>
       <c r="DP5" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="DQ5" s="1" t="s">
-        <v>62</v>
+        <v>565</v>
       </c>
       <c r="DR5" s="1" t="s">
         <v>62</v>
@@ -10425,133 +10396,129 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>